--- a/Documentation/Morfologische kaart samengevoegd.xlsx
+++ b/Documentation/Morfologische kaart samengevoegd.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remco\Documents\Fontys\Minor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MinorAR_MultiRobot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="135"/>
@@ -460,47 +460,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="135"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -821,90 +827,90 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:32" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8" t="s">
+      <c r="V2" s="9"/>
+      <c r="W2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8" t="s">
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8" t="s">
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8" t="s">
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-    </row>
-    <row r="3" spans="1:32" ht="39.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+    </row>
+    <row r="3" spans="1:32" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -935,733 +941,959 @@
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
     </row>
-    <row r="4" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="22"/>
+      <c r="I4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6" t="s">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6" t="s">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6" t="s">
+      <c r="R4" s="12"/>
+      <c r="S4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6" t="s">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6" t="s">
+      <c r="V4" s="12"/>
+      <c r="W4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6" t="s">
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6" t="s">
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="15" t="s">
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6" t="s">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6" t="s">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6" t="s">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="8" t="s">
+      <c r="T5" s="12"/>
+      <c r="U5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8" t="s">
+      <c r="V5" s="9"/>
+      <c r="W5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="6" t="s">
+      <c r="X5" s="9"/>
+      <c r="Y5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6" t="s">
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="15" t="s">
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="20" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="8" t="s">
+      <c r="L6" s="16"/>
+      <c r="M6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8" t="s">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8" t="s">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8" t="s">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8" t="s">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8" t="s">
+      <c r="R7" s="9"/>
+      <c r="S7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="20" t="s">
+      <c r="T7" s="9"/>
+      <c r="U7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="V7" s="20"/>
-      <c r="W7" s="8" t="s">
+      <c r="V7" s="16"/>
+      <c r="W7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="14" t="s">
+      <c r="X7" s="9"/>
+      <c r="Y7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8" t="s">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8" t="s">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8" t="s">
+      <c r="L10" s="9"/>
+      <c r="M10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8" t="s">
+      <c r="N10" s="9"/>
+      <c r="O10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8" t="s">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="272">
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:V3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="W2:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA2:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="AA19:AB19"/>
     <mergeCell ref="AC2:AD3"/>
     <mergeCell ref="AE2:AF3"/>
@@ -1686,243 +1918,17 @@
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="AE13:AF13"/>
     <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA2:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="W2:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:V3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Morfologische kaart samengevoegd.xlsx
+++ b/Documentation/Morfologische kaart samengevoegd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remco\Documents\Fontys\Minor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addie\Documents\fontys\Minor AR\project\MinorAR_MultiRobot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -246,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -446,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="135"/>
@@ -460,47 +466,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="135"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -821,90 +836,90 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8" t="s">
+      <c r="V2" s="9"/>
+      <c r="W2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8" t="s">
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8" t="s">
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8" t="s">
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
     </row>
     <row r="3" spans="1:32" ht="39.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -936,732 +951,958 @@
       <c r="AF3" s="10"/>
     </row>
     <row r="4" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6" t="s">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6" t="s">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6" t="s">
+      <c r="R4" s="12"/>
+      <c r="S4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6" t="s">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6" t="s">
+      <c r="V4" s="12"/>
+      <c r="W4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6" t="s">
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6" t="s">
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="15" t="s">
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6" t="s">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6" t="s">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6" t="s">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="8" t="s">
+      <c r="T5" s="12"/>
+      <c r="U5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8" t="s">
+      <c r="V5" s="9"/>
+      <c r="W5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="6" t="s">
+      <c r="X5" s="9"/>
+      <c r="Y5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6" t="s">
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="15" t="s">
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="20" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="8" t="s">
+      <c r="L6" s="16"/>
+      <c r="M6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8" t="s">
+      <c r="N6" s="24"/>
+      <c r="O6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8" t="s">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8" t="s">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8" t="s">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8" t="s">
+      <c r="R7" s="9"/>
+      <c r="S7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="20" t="s">
+      <c r="T7" s="9"/>
+      <c r="U7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="V7" s="20"/>
-      <c r="W7" s="8" t="s">
+      <c r="V7" s="16"/>
+      <c r="W7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="14" t="s">
+      <c r="X7" s="9"/>
+      <c r="Y7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8" t="s">
+      <c r="L8" s="9"/>
+      <c r="M8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8" t="s">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8" t="s">
+      <c r="L10" s="9"/>
+      <c r="M10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8" t="s">
+      <c r="N10" s="9"/>
+      <c r="O10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8" t="s">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="8" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="272">
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:V3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="W2:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA2:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="AA19:AB19"/>
     <mergeCell ref="AC2:AD3"/>
     <mergeCell ref="AE2:AF3"/>
@@ -1686,243 +1927,17 @@
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="AE13:AF13"/>
     <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA2:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="W2:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:V3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Morfologische kaart samengevoegd.xlsx
+++ b/Documentation/Morfologische kaart samengevoegd.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MinorAR_MultiRobot\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addie\Documents\fontys\Minor AR\project\MinorAR_MultiRobot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -446,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="135"/>
@@ -503,10 +509,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -827,12 +836,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6:L6"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17:L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
@@ -841,7 +850,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:32" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -905,7 +914,7 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
     </row>
-    <row r="3" spans="1:32" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="39.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -941,7 +950,7 @@
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
     </row>
-    <row r="4" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
@@ -950,14 +959,14 @@
         <v>20</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
         <v>23</v>
       </c>
@@ -1005,7 +1014,7 @@
       <c r="AE4" s="12"/>
       <c r="AF4" s="12"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -1014,14 +1023,14 @@
         <v>20</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
         <v>23</v>
       </c>
@@ -1069,7 +1078,7 @@
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1094,10 +1103,10 @@
         <v>33</v>
       </c>
       <c r="L6" s="16"/>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="9"/>
+      <c r="N6" s="24"/>
       <c r="O6" s="9" t="s">
         <v>54</v>
       </c>
@@ -1119,7 +1128,7 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -1128,14 +1137,14 @@
         <v>20</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="23" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
         <v>23</v>
       </c>
@@ -1179,7 +1188,7 @@
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -1204,10 +1213,10 @@
         <v>20</v>
       </c>
       <c r="L8" s="9"/>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="9"/>
+      <c r="N8" s="22"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -1227,7 +1236,7 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1277,7 +1286,7 @@
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -1329,7 +1338,7 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="18"/>
       <c r="C11" s="14"/>
@@ -1363,7 +1372,7 @@
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="18"/>
       <c r="C12" s="14"/>
@@ -1397,7 +1406,7 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="18"/>
       <c r="C13" s="14"/>
@@ -1431,7 +1440,7 @@
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="18"/>
       <c r="C14" s="14"/>
@@ -1465,7 +1474,7 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="18"/>
       <c r="C15" s="14"/>
@@ -1499,7 +1508,7 @@
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="18"/>
       <c r="C16" s="14"/>
@@ -1533,7 +1542,7 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="18"/>
       <c r="C17" s="14"/>
@@ -1567,7 +1576,7 @@
       <c r="AE17" s="9"/>
       <c r="AF17" s="9"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="18"/>
       <c r="C18" s="14"/>
@@ -1601,7 +1610,7 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="18"/>
       <c r="C19" s="14"/>
@@ -1635,22 +1644,22 @@
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>66</v>
       </c>

--- a/Documentation/Morfologische kaart samengevoegd.xlsx
+++ b/Documentation/Morfologische kaart samengevoegd.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>Problem</t>
   </si>
@@ -215,16 +215,7 @@
     <t>Anti slip</t>
   </si>
   <si>
-    <t>Jeroen</t>
-  </si>
-  <si>
-    <t>Addie</t>
-  </si>
-  <si>
-    <t>Remco</t>
-  </si>
-  <si>
-    <t>Robert</t>
+    <t>Many products and transfer</t>
   </si>
 </sst>
 </file>
@@ -246,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,31 +246,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="135"/>
@@ -466,57 +439,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="135"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,901 +807,1013 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17:L17"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9" t="s">
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9" t="s">
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9" t="s">
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9" t="s">
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
     </row>
     <row r="3" spans="1:32" ht="39.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
+      <c r="L4" s="13"/>
+      <c r="M4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12" t="s">
+      <c r="N4" s="13"/>
+      <c r="O4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12" t="s">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12" t="s">
+      <c r="R4" s="13"/>
+      <c r="S4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12" t="s">
+      <c r="T4" s="13"/>
+      <c r="U4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12" t="s">
+      <c r="V4" s="13"/>
+      <c r="W4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12" t="s">
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12" t="s">
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="11" t="s">
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12" t="s">
+      <c r="N5" s="13"/>
+      <c r="O5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12" t="s">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12" t="s">
+      <c r="R5" s="13"/>
+      <c r="S5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="9" t="s">
+      <c r="T5" s="13"/>
+      <c r="U5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9" t="s">
+      <c r="V5" s="11"/>
+      <c r="W5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="12" t="s">
+      <c r="X5" s="11"/>
+      <c r="Y5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12" t="s">
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="11" t="s">
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="16" t="s">
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="24" t="s">
+      <c r="L6" s="11"/>
+      <c r="M6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="9" t="s">
+      <c r="N6" s="11"/>
+      <c r="O6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9" t="s">
+      <c r="L7" s="11"/>
+      <c r="M7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9" t="s">
+      <c r="N7" s="11"/>
+      <c r="O7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9" t="s">
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9" t="s">
+      <c r="R7" s="11"/>
+      <c r="S7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="16" t="s">
+      <c r="T7" s="11"/>
+      <c r="U7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="V7" s="16"/>
-      <c r="W7" s="9" t="s">
+      <c r="V7" s="11"/>
+      <c r="W7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="13" t="s">
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9" t="s">
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="22" t="s">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="22"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9" t="s">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9" t="s">
+      <c r="N9" s="11"/>
+      <c r="O9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+    </row>
+    <row r="10" spans="1:32" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9" t="s">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9" t="s">
+      <c r="L10" s="11"/>
+      <c r="M10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9" t="s">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9" t="s">
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" s="22"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="A21" s="18"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="A22" s="19"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="A23" s="18"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="A24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="272">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:V3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC2:AD3"/>
+    <mergeCell ref="AE2:AF3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA2:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="W2:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="U15:V15"/>
     <mergeCell ref="U16:V16"/>
     <mergeCell ref="U17:V17"/>
@@ -1755,189 +1838,71 @@
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="S16:T16"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="W2:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA2:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC2:AD3"/>
-    <mergeCell ref="AE2:AF3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:V3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
